--- a/SWE/Software Specification/RTM/RTM.xlsx
+++ b/SWE/Software Specification/RTM/RTM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti 9 months\Software eng\git\Sovy---Digital-Calculator-PO1_DGC\SWE\Software Specification\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>CRS_Requirement_ID</t>
   </si>
@@ -38,21 +38,71 @@
     <t>HSI_Requirment_Description</t>
   </si>
   <si>
-    <t>PO1_DGC_CRS_DigitalCalculator_V1.0</t>
-  </si>
-  <si>
-    <t>Req_1ST123_CYRS_overall_001-
-V01</t>
-  </si>
-  <si>
-    <t>Put the requirement description on system level as discussed</t>
+    <t>Req_1ST123_HSI_overall_001-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CRS_overall_001-V1.0</t>
+  </si>
+  <si>
+    <t>The user should interface with the calculator through the keypad</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CRS_overall_002-V1.0</t>
+  </si>
+  <si>
+    <t>1) Four buttons for: add, subtract, multiply and divide operations.
+2) One button for: open/close the calculator.
+3) 10 Buttons for: numbers from zero to nine</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CRS_overall_003-V1.0</t>
+  </si>
+  <si>
+    <t>operation, number and result should be displayed</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CRS_overall_004-V1.0</t>
+  </si>
+  <si>
+    <t>A tune with frequency 500 HZ should be released from a buzzer whenever user press on a keypad button</t>
+  </si>
+  <si>
+    <t>There is a button that is responsible for switching the system on/off (Lcd &amp; Keypad).</t>
+  </si>
+  <si>
+    <t>When any key in the keypad is pressed, it will generate a high pulse which turns the buzzer on.</t>
+  </si>
+  <si>
+    <t>Req_1ST123_HSI_overall_04-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_HSI_overall_03-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_HSI_overall_02-V1.0</t>
+  </si>
+  <si>
+    <t>The Keypad in total contains 16 keys, each of which can be used to send a particular input to
+the microcontroller as required by the user. Each row and column has a separate pin which is
+connected to separate pin on the Atmega32 microcontroller. A key press is detected using
+polling based method. Initially, all the rows and columns are logic high. Each row is made logic
+low one by one. And the corresponding column which is made logic low, by a key press, is
+detected. The detected row and column numbers are scanned in the array(software) which
+return the corresponding number entered assigned to the pressed key</t>
+  </si>
+  <si>
+    <t>An LCD Display of 16x2 characters is used to display the output of this project. The LCD
+Display was directly interfaced to the microcontroller. It will output any data fed to it on its data
+lines.
+When a particular row is set low, and happens that the 1st operand of the operation to be in this row and is pressed, the corresponding column is set low and a key press, is detected. By that time, the LCD will be initialized and ready for receiving data. Then, it will be displayed on the
+LCD. Similarly, the operator and the 2nd operand will also be displayed. And by pressing the equal key, the result will be displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,17 +111,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ArialMT"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -101,13 +170,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,46 +470,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SWE/Software Specification/RTM/RTM.xlsx
+++ b/SWE/Software Specification/RTM/RTM.xlsx
@@ -24,85 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>CRS_Requirement_ID</t>
   </si>
   <si>
-    <t>CRS_Requirement_Description</t>
-  </si>
-  <si>
     <t>HSI_Requirment_ID</t>
   </si>
   <si>
-    <t>HSI_Requirment_Description</t>
-  </si>
-  <si>
     <t>Req_1ST123_HSI_overall_001-V1.0</t>
   </si>
   <si>
     <t>Req_1ST123_CRS_overall_001-V1.0</t>
   </si>
   <si>
-    <t>The user should interface with the calculator through the keypad</t>
-  </si>
-  <si>
     <t>Req_1ST123_CRS_overall_002-V1.0</t>
   </si>
   <si>
-    <t>1) Four buttons for: add, subtract, multiply and divide operations.
-2) One button for: open/close the calculator.
-3) 10 Buttons for: numbers from zero to nine</t>
-  </si>
-  <si>
     <t>Req_1ST123_CRS_overall_003-V1.0</t>
   </si>
   <si>
-    <t>operation, number and result should be displayed</t>
-  </si>
-  <si>
     <t>Req_1ST123_CRS_overall_004-V1.0</t>
   </si>
   <si>
-    <t>A tune with frequency 500 HZ should be released from a buzzer whenever user press on a keypad button</t>
-  </si>
-  <si>
-    <t>There is a button that is responsible for switching the system on/off (Lcd &amp; Keypad).</t>
-  </si>
-  <si>
-    <t>When any key in the keypad is pressed, it will generate a high pulse which turns the buzzer on.</t>
-  </si>
-  <si>
-    <t>Req_1ST123_HSI_overall_04-V1.0</t>
-  </si>
-  <si>
-    <t>Req_1ST123_HSI_overall_03-V1.0</t>
-  </si>
-  <si>
-    <t>Req_1ST123_HSI_overall_02-V1.0</t>
-  </si>
-  <si>
-    <t>The Keypad in total contains 16 keys, each of which can be used to send a particular input to
-the microcontroller as required by the user. Each row and column has a separate pin which is
-connected to separate pin on the Atmega32 microcontroller. A key press is detected using
-polling based method. Initially, all the rows and columns are logic high. Each row is made logic
-low one by one. And the corresponding column which is made logic low, by a key press, is
-detected. The detected row and column numbers are scanned in the array(software) which
-return the corresponding number entered assigned to the pressed key</t>
-  </si>
-  <si>
-    <t>An LCD Display of 16x2 characters is used to display the output of this project. The LCD
-Display was directly interfaced to the microcontroller. It will output any data fed to it on its data
-lines.
-When a particular row is set low, and happens that the 1st operand of the operation to be in this row and is pressed, the corresponding column is set low and a key press, is detected. By that time, the LCD will be initialized and ready for receiving data. Then, it will be displayed on the
-LCD. Similarly, the operator and the 2nd operand will also be displayed. And by pressing the equal key, the result will be displayed</t>
+    <t>CR_Requirment_ID</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CR_overall_01-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CR_overall_03-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CR_overall_02-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CR_overall_04-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_HSI_overall_001-V1.0
+Req_1ST123_HSI_overall_002-V1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +96,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -138,7 +113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,31 +145,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -205,6 +256,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:C5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="CR_Requirment_ID" dataDxfId="4"/>
+    <tableColumn id="2" name="CRS_Requirement_ID" dataDxfId="3"/>
+    <tableColumn id="3" name="HSI_Requirment_ID" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,90 +536,83 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="40.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="4" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/SWE/Software Specification/RTM/RTM.xlsx
+++ b/SWE/Software Specification/RTM/RTM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti 9 months\Software eng\git\Sovy---Digital-Calculator-PO1_DGC\SWE\Software Specification\RTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Sovy\Sovy---Digital-Calculator-PO1_DGC\SWE\Software Specification\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>CRS_Requirement_ID</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Req_1ST123_CRS_overall_001-V1.0</t>
   </si>
   <si>
-    <t>Req_1ST123_CRS_overall_002-V1.0</t>
-  </si>
-  <si>
     <t>Req_1ST123_CRS_overall_003-V1.0</t>
   </si>
   <si>
-    <t>Req_1ST123_CRS_overall_004-V1.0</t>
-  </si>
-  <si>
     <t>CR_Requirment_ID</t>
   </si>
   <si>
@@ -59,11 +53,23 @@
     <t>Req_1ST123_CR_overall_02-V1.0</t>
   </si>
   <si>
-    <t>Req_1ST123_CR_overall_04-V1.0</t>
-  </si>
-  <si>
-    <t>Req_1ST123_HSI_overall_001-V1.0
-Req_1ST123_HSI_overall_002-V1.0</t>
+    <t>Req_1ST123_CRS_overall_002-V1.1</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CRS_overall_004-V1.1</t>
+  </si>
+  <si>
+    <t>Req_1ST123_CR_overall_04-V1.1</t>
+  </si>
+  <si>
+    <t>Req_1ST123_HSI_overall_003-V1.0
+Req_1ST123_HSI_overall_004-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_HSI_overall_005-V1.0</t>
+  </si>
+  <si>
+    <t>Req_1ST123_HSI_overall_002-V1.0</t>
   </si>
 </sst>
 </file>
@@ -200,6 +206,8 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -240,8 +248,6 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -259,12 +265,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="CR_Requirment_ID" dataDxfId="4"/>
-    <tableColumn id="2" name="CRS_Requirement_ID" dataDxfId="3"/>
-    <tableColumn id="3" name="HSI_Requirment_ID" dataDxfId="2"/>
+    <tableColumn id="1" name="CR_Requirment_ID" dataDxfId="2"/>
+    <tableColumn id="2" name="CRS_Requirement_ID" dataDxfId="1"/>
+    <tableColumn id="3" name="HSI_Requirment_ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -536,21 +542,21 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="46" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="43.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -560,51 +566,51 @@
       </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4"/>
     </row>
